--- a/experiment-a-b.xlsx
+++ b/experiment-a-b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hxc/Google/projects/sigmod-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B4B47A-A7BD-9C4F-9E26-0C41C81FD136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDA4EC-A256-C047-B1FD-977285323AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1975,11 +1975,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" customWidth="1"/>
+    <col min="25" max="25" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
